--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>19.72450833333333</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H2">
-        <v>59.173525</v>
+        <v>26.789441</v>
       </c>
       <c r="I2">
-        <v>0.5834853563809828</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J2">
-        <v>0.5834853563809829</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N2">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q2">
-        <v>664.0605971936305</v>
+        <v>454.1830450945371</v>
       </c>
       <c r="R2">
-        <v>5976.545374742675</v>
+        <v>4087.647405850834</v>
       </c>
       <c r="S2">
-        <v>0.1519805918866407</v>
+        <v>0.1229436309135843</v>
       </c>
       <c r="T2">
-        <v>0.1519805918866408</v>
+        <v>0.1229436309135843</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>19.72450833333333</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H3">
-        <v>59.173525</v>
+        <v>26.789441</v>
       </c>
       <c r="I3">
-        <v>0.5834853563809828</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J3">
-        <v>0.5834853563809829</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N3">
         <v>131.049072</v>
       </c>
       <c r="O3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q3">
-        <v>861.6261709132002</v>
+        <v>390.081264716528</v>
       </c>
       <c r="R3">
-        <v>7754.635538218801</v>
+        <v>3510.731382448752</v>
       </c>
       <c r="S3">
-        <v>0.1971965450047998</v>
+        <v>0.1055918039072344</v>
       </c>
       <c r="T3">
-        <v>0.1971965450047999</v>
+        <v>0.1055918039072345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>19.72450833333333</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H4">
-        <v>59.173525</v>
+        <v>26.789441</v>
       </c>
       <c r="I4">
-        <v>0.5834853563809828</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J4">
-        <v>0.5834853563809829</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N4">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q4">
-        <v>675.4944607352805</v>
+        <v>327.2205706781442</v>
       </c>
       <c r="R4">
-        <v>6079.450146617525</v>
+        <v>2944.985136103297</v>
       </c>
       <c r="S4">
-        <v>0.154597409321608</v>
+        <v>0.08857592880952316</v>
       </c>
       <c r="T4">
-        <v>0.154597409321608</v>
+        <v>0.08857592880952317</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>19.72450833333333</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H5">
-        <v>59.173525</v>
+        <v>26.789441</v>
       </c>
       <c r="I5">
-        <v>0.5834853563809828</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J5">
-        <v>0.5834853563809829</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N5">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q5">
-        <v>348.2866301928083</v>
+        <v>151.0003957441195</v>
       </c>
       <c r="R5">
-        <v>3134.579671735275</v>
+        <v>1359.003561697075</v>
       </c>
       <c r="S5">
-        <v>0.07971081016793428</v>
+        <v>0.04087457055625231</v>
       </c>
       <c r="T5">
-        <v>0.0797108101679343</v>
+        <v>0.04087457055625231</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.305287</v>
       </c>
       <c r="I6">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J6">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N6">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O6">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P6">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q6">
-        <v>25.870526758761</v>
+        <v>39.083393695182</v>
       </c>
       <c r="R6">
-        <v>232.834740828849</v>
+        <v>351.750543256638</v>
       </c>
       <c r="S6">
-        <v>0.005920872260501267</v>
+        <v>0.01057955461175483</v>
       </c>
       <c r="T6">
-        <v>0.00592087226050127</v>
+        <v>0.01057955461175483</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.305287</v>
       </c>
       <c r="I7">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J7">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N7">
         <v>131.049072</v>
       </c>
       <c r="O7">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P7">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q7">
-        <v>33.567302449296</v>
+        <v>33.56730244929599</v>
       </c>
       <c r="R7">
-        <v>302.1057220436641</v>
+        <v>302.1057220436639</v>
       </c>
       <c r="S7">
-        <v>0.007682399039848986</v>
+        <v>0.009086393883840155</v>
       </c>
       <c r="T7">
-        <v>0.007682399039848986</v>
+        <v>0.009086393883840157</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.305287</v>
       </c>
       <c r="I8">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J8">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N8">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O8">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P8">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q8">
-        <v>26.315968144623</v>
+        <v>28.158009258831</v>
       </c>
       <c r="R8">
-        <v>236.843713301607</v>
+        <v>253.422083329479</v>
       </c>
       <c r="S8">
-        <v>0.006022818446979145</v>
+        <v>0.007622142514937851</v>
       </c>
       <c r="T8">
-        <v>0.006022818446979146</v>
+        <v>0.007622142514937852</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.305287</v>
       </c>
       <c r="I9">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J9">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N9">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O9">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P9">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q9">
-        <v>13.568578867953</v>
+        <v>12.993897457725</v>
       </c>
       <c r="R9">
-        <v>122.117209811577</v>
+        <v>116.945077119525</v>
       </c>
       <c r="S9">
-        <v>0.003105380226031941</v>
+        <v>0.003517341632246496</v>
       </c>
       <c r="T9">
-        <v>0.003105380226031941</v>
+        <v>0.003517341632246497</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.31169566666667</v>
+        <v>15.246351</v>
       </c>
       <c r="H10">
-        <v>39.935087</v>
+        <v>45.739053</v>
       </c>
       <c r="I10">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="J10">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N10">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O10">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P10">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q10">
-        <v>448.1618717526055</v>
+        <v>775.4511328280579</v>
       </c>
       <c r="R10">
-        <v>4033.456845773449</v>
+        <v>6979.060195452522</v>
       </c>
       <c r="S10">
-        <v>0.102568811969618</v>
+        <v>0.2099082713360412</v>
       </c>
       <c r="T10">
-        <v>0.102568811969618</v>
+        <v>0.2099082713360413</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.31169566666667</v>
+        <v>15.246351</v>
       </c>
       <c r="H11">
-        <v>39.935087</v>
+        <v>45.739053</v>
       </c>
       <c r="I11">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="J11">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N11">
         <v>131.049072</v>
       </c>
       <c r="O11">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P11">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q11">
-        <v>581.4951212876962</v>
+        <v>666.0067166454239</v>
       </c>
       <c r="R11">
-        <v>5233.456091589265</v>
+        <v>5994.060449808816</v>
       </c>
       <c r="S11">
-        <v>0.1330841990715628</v>
+        <v>0.1802825641370644</v>
       </c>
       <c r="T11">
-        <v>0.1330841990715628</v>
+        <v>0.1802825641370644</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.31169566666667</v>
+        <v>15.246351</v>
       </c>
       <c r="H12">
-        <v>39.935087</v>
+        <v>45.739053</v>
       </c>
       <c r="I12">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="J12">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N12">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O12">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P12">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q12">
-        <v>455.8783688732674</v>
+        <v>558.681273899589</v>
       </c>
       <c r="R12">
-        <v>4102.905319859407</v>
+        <v>5028.131465096301</v>
       </c>
       <c r="S12">
-        <v>0.1043348523048614</v>
+        <v>0.1512304456947424</v>
       </c>
       <c r="T12">
-        <v>0.1043348523048614</v>
+        <v>0.1512304456947424</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.31169566666667</v>
+        <v>15.246351</v>
       </c>
       <c r="H13">
-        <v>39.935087</v>
+        <v>45.739053</v>
       </c>
       <c r="I13">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="J13">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N13">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O13">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P13">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q13">
-        <v>235.0520250008197</v>
+        <v>257.811094451775</v>
       </c>
       <c r="R13">
-        <v>2115.468225007377</v>
+        <v>2320.299850065975</v>
       </c>
       <c r="S13">
-        <v>0.05379531029961356</v>
+        <v>0.0697873520027784</v>
       </c>
       <c r="T13">
-        <v>0.05379531029961357</v>
+        <v>0.0697873520027784</v>
       </c>
     </row>
   </sheetData>
